--- a/conven_control/data/ros_curve2_v1.xlsx
+++ b/conven_control/data/ros_curve2_v1.xlsx
@@ -125,12 +125,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,13 +147,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
@@ -184,13 +180,13 @@
       <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -199,22 +195,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-10.049</v>
+        <v>-10.036</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>55.968</v>
+        <v>55.945</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>70.212</v>
+        <v>70.259</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>221.326</v>
+        <v>-138.719</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>-12.985</v>
+        <v>-12.888</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-228.426</v>
+        <v>131.611</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
@@ -223,10 +219,10 @@
         <v>2.921</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>-3.237</v>
+        <v>-3.236</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>9.505</v>
+        <v>9.503</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,34 +230,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-8.463</v>
+        <v>-8.467</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>56.116</v>
+        <v>56.076</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>69.881</v>
+        <v>69.962</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>214.482</v>
+        <v>-145.074</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>-12.706</v>
+        <v>-12.68</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-220.467</v>
+        <v>138.993</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3.015</v>
+        <v>3.014</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>-3.101</v>
+        <v>-3.1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>9.352</v>
+        <v>9.346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,34 +265,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-6.826</v>
+        <v>-6.813</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>55.463</v>
+        <v>55.49</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>71.234</v>
+        <v>71.179</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>211.255</v>
+        <v>211.012</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-10.167</v>
+        <v>-10.232</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-215.911</v>
+        <v>-215.701</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.095</v>
+        <v>3.097</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>-2.937</v>
+        <v>-2.936</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>9.103</v>
+        <v>9.104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,34 +300,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>176.937</v>
+        <v>-12.185</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-129.744</v>
+        <v>46.181</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>73.956</v>
+        <v>94.117</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>186.196</v>
+        <v>-27.479</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>56.404</v>
+        <v>-30.613</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-5.284</v>
+        <v>18.812</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>-1.833</v>
+        <v>2.747</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>-2.01</v>
+        <v>-2.657</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3.7</v>
+        <v>7.302</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,34 +335,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>178.865</v>
+        <v>-10.313</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-55.471</v>
+        <v>45.955</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-74.661</v>
+        <v>94.695</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-9.256</v>
+        <v>-23.059</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>18.537</v>
+        <v>-30.463</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>187.827</v>
+        <v>15.774</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>2.904</v>
+        <v>2.81</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>-2.004</v>
+        <v>-2.509</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>6.223</v>
+        <v>7.094</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,34 +370,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-8.081</v>
+        <v>-8.131</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45.733</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>95.259</v>
+        <v>95.321</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-15.517</v>
+        <v>-15.69</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-30.169</v>
+        <v>-30.339</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>10.448</v>
+        <v>10.61</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2.871</v>
+        <v>2.869</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>-2.344</v>
+        <v>-2.347</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>6.87</v>
+        <v>6.868</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,34 +405,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-14.001</v>
+        <v>-14.044</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>54.504</v>
+        <v>54.49</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>114.268</v>
+        <v>114.273</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-11.151</v>
+        <v>-11.178</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-95.306</v>
+        <v>-95.293</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2.347</v>
+        <v>2.46</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1.304</v>
+        <v>1.303</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>-1.945</v>
+        <v>-1.947</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2.741</v>
+        <v>2.745</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,34 +440,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-12.832</v>
+        <v>-12.792</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>54.526</v>
+        <v>54.529</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>114.492</v>
+        <v>114.487</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-12.326</v>
+        <v>-12.189</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>-95.732</v>
+        <v>-95.719</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2.398</v>
+        <v>2.411</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1.323</v>
+        <v>1.324</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>-1.874</v>
+        <v>-1.873</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>2.631</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,34 +475,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-11.139</v>
+        <v>-11.089</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>54.836</v>
+        <v>54.839</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>114.696</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>-11.953</v>
+        <v>-11.829</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>-96.816</v>
+        <v>-96.814</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>2.165</v>
+        <v>2.106</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1.325</v>
+        <v>1.326</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>-1.773</v>
+        <v>-1.771</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>2.45</v>
+        <v>2.447</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,31 +510,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>176.618</v>
+        <v>176.576</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-69.014</v>
+        <v>-69.046</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>-97.88</v>
+        <v>-97.866</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-2.636</v>
+        <v>-2.704</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>115.781</v>
+        <v>115.83</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>180.827</v>
+        <v>180.891</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1.304</v>
+        <v>1.303</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>-1.36</v>
+        <v>-1.361</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1.776</v>
@@ -549,34 +545,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>176.618</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-69.014</v>
+        <v>-0.004</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-97.88</v>
+        <v>89.995</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-2.636</v>
+        <v>0.002</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>115.781</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>180.827</v>
+        <v>-0.004</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1.304</v>
+        <v>-1.605</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>-1.36</v>
+        <v>-1.065</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1.776</v>
+        <v>1.856</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,36 +580,48 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-178.561</v>
+        <v>-178.553</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-68.545</v>
+        <v>-68.495</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-98.832</v>
+        <v>-98.864</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.932</v>
+        <v>0.882</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>115.716</v>
+        <v>115.616</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-180.322</v>
+        <v>179.573</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1.326</v>
+        <v>1.328</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>-1.142</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1.531</v>
-      </c>
-    </row>
+        <v>1.534</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
